--- a/App登录测试用例.xlsx
+++ b/App登录测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiuyu/Desktop/myGit/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABD85D8-AB6C-D046-A6D6-CAAEFA97D902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14392F8-0B2D-8E48-BB05-B6A4CE8179F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3820" windowWidth="27840" windowHeight="16940" xr2:uid="{4F2FD3CA-5481-064E-B086-F50639764E29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{4F2FD3CA-5481-064E-B086-F50639764E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,62 @@
   </si>
   <si>
     <t>密码加密提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SING_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入签到页面，点击【签到】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功，金币+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示无网络，签到失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入签到页面，关闭网络，点击【签到】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入签到页面，快速重复点击【签到】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SING_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SING_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功一次，金币+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,23 +284,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,22 +616,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E0C1A7-C178-8144-9236-E6DF9E54EF1B}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -589,7 +645,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -605,116 +661,182 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="44" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="44" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="44" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="44" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="44" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="44" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="44" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="44" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="44" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="44" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A6:XFD6"/>
     <mergeCell ref="A2:XFD2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/App登录测试用例.xlsx
+++ b/App登录测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiuyu/Desktop/myGit/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14392F8-0B2D-8E48-BB05-B6A4CE8179F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8998E6D3-BF78-244E-9C00-BA65867B2A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{4F2FD3CA-5481-064E-B086-F50639764E29}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1"/>
@@ -663,181 +663,181 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="44" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="44" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="44" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="44" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="44" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="44" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="44" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="44" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="44" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="44" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="44" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:XFD6"/>
     <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A8:XFD8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
